--- a/src/main/resources/URL Mapping.xlsx
+++ b/src/main/resources/URL Mapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习资料\大三第三学期\J2EE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA Projects\SpringBoot Projects\music-box\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC08F54B-2095-41DB-917B-F4ECF188E9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83183994-863F-4DDA-A2F4-9946E10F15C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
   <si>
     <t>/user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>评论…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>播放列表…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -347,15 +343,116 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收藏到歌单…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下载指定id vip 歌曲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{id}, status</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, status</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_number, page_size, *条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取指定id的歌曲评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>song_id, page_number, page_size, *条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前不能做到对评论的回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>song_id, comment_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>song_id, comment_id, content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>song_id, content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Token </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ Admin</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取歌曲信息 (非播放)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定id歌曲信息 (非播放)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除对指定歌曲的评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改对指定歌曲的评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表对指定歌曲的评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/add_to_playlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前暂缓设计播放列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将歌曲收藏到歌单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>song_id, song_menu_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,7 +460,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,8 +519,41 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,6 +584,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -467,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -491,11 +627,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -788,7 +929,8 @@
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" customWidth="1"/>
   </cols>
@@ -829,7 +971,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
@@ -846,10 +988,10 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -872,10 +1014,10 @@
       <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
@@ -885,10 +1027,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -898,10 +1040,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
@@ -917,7 +1059,7 @@
       <c r="B12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -933,7 +1075,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
-      <c r="C13" t="s">
+      <c r="C13" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -981,13 +1123,13 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
         <v>71</v>
       </c>
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>15</v>
@@ -1000,10 +1142,10 @@
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>15</v>
@@ -1021,25 +1163,25 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F20" t="s">
-        <v>82</v>
+      <c r="F20" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
-      <c r="B21" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="16"/>
+      <c r="B21" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="18"/>
       <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
@@ -1052,10 +1194,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1067,55 +1209,62 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
-      <c r="C29" t="s">
-        <v>34</v>
-      </c>
+      <c r="C29" s="14"/>
       <c r="D29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
+      <c r="A30" s="13"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
+      <c r="A31" s="13"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>15</v>
@@ -1125,122 +1274,237 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+      <c r="A34" s="13"/>
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="D36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F36" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" s="13"/>
+      <c r="D38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="7"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" t="s">
         <v>66</v>
       </c>
-      <c r="C40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="7"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" t="s">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+      <c r="C67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>54</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>49</v>
-      </c>
-      <c r="C66" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+      <c r="C81" t="s">
         <v>60</v>
       </c>
-      <c r="C72" t="s">
-        <v>61</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B28:B29"/>
+  <mergeCells count="18">
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A28:A47"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B38:C41"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>

--- a/src/main/resources/URL Mapping.xlsx
+++ b/src/main/resources/URL Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA Projects\SpringBoot Projects\music-box\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83183994-863F-4DDA-A2F4-9946E10F15C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65061345-2E9F-4C04-8BC0-BFB5AF6E4C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="117">
   <si>
     <t>/user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,10 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自己的歌单…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>收藏的歌单…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,10 +328,6 @@
   </si>
   <si>
     <t>变更用户状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粗体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -387,10 +379,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目前不能做到对评论的回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>song_id, comment_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,15 +432,112 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目前暂缓设计播放列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>将歌曲收藏到歌单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>song_id, song_menu_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建歌单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑歌单信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整歌单中歌曲顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除歌单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取自己所有歌单的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取指定歌单中所有歌曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除指定歌单中指定歌曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取歌单信息 (不包含具体歌曲)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定id歌单信息 (不包含具体歌曲)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前不能做到对评论的回复 [表缺字段]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前暂缓设计播放列表 [延后实现]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传歌单封面 [表缺字段]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>song_menu_id, page_number, page_size, *条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>? 待进一步确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向指定歌单中添加歌曲 (与/song/collect功能一致)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{song_menu_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{song_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置歌单权限 [表缺字段]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{song_menu_id}, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>song_menu</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,15 +596,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="等线"/>
@@ -547,6 +623,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -620,23 +704,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -918,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -971,7 +1057,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
@@ -988,18 +1074,18 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="5" t="s">
         <v>36</v>
       </c>
@@ -1011,7 +1097,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -1026,7 +1112,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="18" t="s">
         <v>2</v>
       </c>
@@ -1039,7 +1125,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="18" t="s">
         <v>3</v>
       </c>
@@ -1052,11 +1138,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="17"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="19" t="s">
@@ -1073,8 +1159,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="19" t="s">
         <v>18</v>
       </c>
@@ -1089,8 +1175,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
       <c r="C14" t="s">
         <v>24</v>
       </c>
@@ -1105,8 +1191,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
       <c r="C15" t="s">
         <v>30</v>
       </c>
@@ -1121,15 +1207,15 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
         <v>70</v>
       </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>15</v>
@@ -1139,13 +1225,13 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>15</v>
@@ -1155,31 +1241,31 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="A18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
+      <c r="A19" s="17"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>80</v>
+      <c r="F20" s="12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="1" t="s">
@@ -1193,7 +1279,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="18" t="s">
         <v>26</v>
       </c>
@@ -1209,42 +1295,42 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="14"/>
+      <c r="B28" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="16"/>
       <c r="D28" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="14"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
+      <c r="A30" s="17"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
+      <c r="A31" s="17"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
@@ -1254,12 +1340,12 @@
         <v>32</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
       <c r="C33" t="s">
         <v>34</v>
       </c>
@@ -1270,16 +1356,16 @@
         <v>15</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="7"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C35" t="s">
@@ -1292,219 +1378,374 @@
         <v>15</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
       <c r="C36" t="s">
         <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
+      <c r="A37" s="17"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="13"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="2" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+      <c r="B46" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
         <v>94</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F41" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="16"/>
+      <c r="D52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+      <c r="D54" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C56" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="17"/>
+      <c r="C57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="17"/>
+      <c r="C58" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="17"/>
+      <c r="C59" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="17"/>
+      <c r="D60" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="17"/>
+      <c r="D61" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="17"/>
+      <c r="C62" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="17"/>
+      <c r="C63" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="17"/>
+      <c r="C64" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="17"/>
+      <c r="C65" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>53</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C72" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>54</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C75" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>55</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C78" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>49</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C81" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C84" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C86" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="A28:A47"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B38:C41"/>
+  <mergeCells count="21">
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B56:B65"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
@@ -1515,6 +1756,13 @@
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="A8:A22"/>
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A28:A47"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B38:C41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/URL Mapping.xlsx
+++ b/src/main/resources/URL Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA Projects\SpringBoot Projects\music-box\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65061345-2E9F-4C04-8BC0-BFB5AF6E4C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD90FE2-2258-4038-8259-55594C0712C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="165">
   <si>
     <t>/user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/vip/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,14 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JSON格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/song_menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/playlist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>历史记录…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推荐…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,14 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创作…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载管理…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下载指定id普通歌曲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,10 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收藏的歌单…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/parse_token</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,15 +287,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/status/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>变更用户状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -375,22 +331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>song_id, page_number, page_size, *条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>song_id, comment_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>song_id, comment_id, content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>song_id, content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Token </t>
     </r>
@@ -440,42 +380,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新建歌单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编辑歌单信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>调整歌单中歌曲顺序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>删除歌单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分页获取自己所有歌单的信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分页获取指定歌单中所有歌曲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>删除指定歌单中指定歌曲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分页获取歌单信息 (不包含具体歌曲)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取指定id歌单信息 (不包含具体歌曲)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -508,19 +424,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>向指定歌单中添加歌曲 (与/song/collect功能一致)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{song_menu_id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{song_id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置歌单权限 [表缺字段]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -540,12 +448,418 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>删除自己创建的歌单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{song_menu_id}</t>
+  </si>
+  <si>
+    <t>/{song_menu_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{song_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vip/{song_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">设置歌单权限 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/authority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需注意歌单权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除指定歌单中指定歌曲 (权限)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向指定歌单中添加歌曲 (权限)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取所有歌单信息 (不包含具体歌曲)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑歌单信息 (权限)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_number, page_size, *筛选条件, *排序条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{sond_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{song_id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, page_number, page_size, *条件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{song_id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, content</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{comment_id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, content</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{comment_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{comment_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取指定用户历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空指定用户历史记录 (建议添加逻辑删除字段)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{user_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{user_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除本地保存的指定歌曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除本地保存的全部歌曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取全部本地下载的歌曲信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{music_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{user_id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, page_number, page_size, *条件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取自己创建的所有歌单的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{music_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/social</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注… 私信…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传歌曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整歌曲可见度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传歌曲封面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除自己上传的歌曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取自己上传的歌曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改自己上传的歌曲信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新自己作为创作者的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/visit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{id}</t>
+  </si>
+  <si>
+    <t>/status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[歌曲文件]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[图片文件]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/visiblility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/album</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建专辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除专辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{music_menu_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{music_menu_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>music_menu, album</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑专辑信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取他人非隐私信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON格式 (@RequestBody)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径变量 (@PathVariable)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">需要token </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(@NeedToken)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">收藏歌单 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(或专辑)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">不再收藏歌单 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (或专辑)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>分页获取自己收藏的所有歌单</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (或专辑)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,8 +950,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -674,6 +997,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -687,7 +1016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -710,20 +1039,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1004,18 +1337,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94:C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" customWidth="1"/>
@@ -1040,101 +1373,115 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>45</v>
+        <v>154</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>68</v>
+        <v>160</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>44</v>
+        <v>158</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>95</v>
+        <v>159</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="5" t="s">
+      <c r="F7" t="s">
         <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1145,181 +1492,217 @@
       <c r="B12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="19" t="s">
-        <v>18</v>
+      <c r="C13" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E15" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
-      <c r="B16" s="17" t="s">
-        <v>69</v>
-      </c>
+      <c r="B16" s="17"/>
       <c r="C16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>133</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F16" t="s">
-        <v>41</v>
+      <c r="F16" s="10" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
+      <c r="B18" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
-      <c r="B20" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
-      <c r="B21" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="E23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F22" t="s">
-        <v>41</v>
+      <c r="C24" s="19"/>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="16"/>
+      <c r="B28" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="18"/>
       <c r="D28" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
-      <c r="B29" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="16"/>
+      <c r="B29" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="18"/>
       <c r="D29" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1334,29 +1717,29 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1366,35 +1749,35 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1403,65 +1786,73 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="17"/>
+        <v>44</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="D38" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E38" s="6"/>
-      <c r="F38" t="s">
-        <v>82</v>
+      <c r="F38" s="12" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
+      <c r="C39" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="D39" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F39" t="s">
-        <v>85</v>
+      <c r="F39" s="12" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
+      <c r="C40" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="D40" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F40" t="s">
-        <v>84</v>
+      <c r="F40" s="12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
+      <c r="C41" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="D41" s="4" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41" t="s">
-        <v>83</v>
+        <v>71</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
-      <c r="B42" s="13"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="13"/>
       <c r="D42" s="14" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="E42" s="8"/>
     </row>
@@ -1470,12 +1861,12 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
-      <c r="B44" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="16"/>
+      <c r="B44" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="18"/>
       <c r="D44" s="14" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>15</v>
@@ -1486,283 +1877,636 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
-      <c r="B46" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="16"/>
+      <c r="B46" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="18"/>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="16" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="17"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="13" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="17"/>
-      <c r="C59" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="17"/>
-      <c r="D60" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="17"/>
-      <c r="D61" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="17"/>
-      <c r="C62" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="17"/>
+      <c r="F58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="17"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="17"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="17"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="17"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="17"/>
+      <c r="B63" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="C63" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>102</v>
+        <v>68</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="13" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F65" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+      <c r="F65" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="D66" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="17"/>
+      <c r="B68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="17"/>
+      <c r="B69" s="7"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="17"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="17"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" t="s">
+        <v>116</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" t="s">
+        <v>116</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="17"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="17"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="17"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="17"/>
+      <c r="B83" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="17"/>
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="17"/>
+      <c r="B85" s="5"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="17"/>
+      <c r="B86" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" t="s">
+        <v>52</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="17"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="17"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="17"/>
+      <c r="B89" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" t="s">
+        <v>47</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" s="18"/>
+      <c r="D93" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="17"/>
+      <c r="B94" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94" s="17"/>
+      <c r="D94" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="17"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="17"/>
+      <c r="B96" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" t="s">
+        <v>142</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="17"/>
+      <c r="B97" s="17"/>
+      <c r="C97" t="s">
+        <v>87</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="17"/>
+      <c r="B98" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="17"/>
+      <c r="B99" s="17"/>
+      <c r="C99" t="s">
+        <v>147</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="17"/>
+      <c r="B100" s="17"/>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="17"/>
+      <c r="B101" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C101" s="17"/>
+      <c r="D101" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C106" t="s">
+        <v>126</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C72" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+      <c r="C109" t="s">
         <v>54</v>
       </c>
-      <c r="C75" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>55</v>
-      </c>
-      <c r="C78" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>49</v>
-      </c>
-      <c r="C81" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C86" t="s">
-        <v>60</v>
+      <c r="D109" s="14" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B56:B65"/>
-    <mergeCell ref="A7:C7"/>
+  <mergeCells count="30">
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A8:A22"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="A93:A101"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="A28:A47"/>
+    <mergeCell ref="B94:C95"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A8:A25"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="A51:A89"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B70:B72"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B38:C41"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/URL Mapping.xlsx
+++ b/src/main/resources/URL Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA Projects\SpringBoot Projects\music-box\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD90FE2-2258-4038-8259-55594C0712C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DA4C96-8AD5-4C6A-BC85-CBB6FDF84F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1043,20 +1043,22 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1340,7 +1342,7 @@
   <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94:C95"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1378,7 +1380,7 @@
       <c r="B2" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1428,11 +1430,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="5" t="s">
         <v>34</v>
       </c>
@@ -1444,13 +1446,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1459,11 +1461,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1472,11 +1474,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1485,11 +1487,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="21"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -1506,8 +1508,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="15" t="s">
         <v>17</v>
       </c>
@@ -1522,9 +1524,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1538,8 +1540,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -1554,8 +1556,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
       <c r="C16" t="s">
         <v>61</v>
       </c>
@@ -1570,14 +1572,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="21"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="15" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1591,9 +1593,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="15" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1607,17 +1609,17 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="A20" s="21"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="17" t="s">
         <v>136</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1631,11 +1633,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1647,11 +1649,11 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="19"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1663,7 +1665,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="5" t="s">
         <v>135</v>
       </c>
@@ -1678,13 +1680,13 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="18"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="1" t="s">
         <v>72</v>
       </c>
@@ -1693,11 +1695,11 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="1" t="s">
         <v>73</v>
       </c>
@@ -1706,14 +1708,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="A30" s="21"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
+      <c r="A31" s="21"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
@@ -1727,8 +1729,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
       <c r="C33" t="s">
         <v>98</v>
       </c>
@@ -1743,12 +1745,12 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="7"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C35" t="s">
@@ -1765,8 +1767,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
       <c r="C36" t="s">
         <v>98</v>
       </c>
@@ -1781,11 +1783,11 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
+      <c r="A37" s="21"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17" t="s">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="13" t="s">
@@ -1800,8 +1802,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="13" t="s">
         <v>108</v>
       </c>
@@ -1816,8 +1818,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="13" t="s">
         <v>113</v>
       </c>
@@ -1832,8 +1834,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="13" t="s">
         <v>113</v>
       </c>
@@ -1848,8 +1850,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="13"/>
       <c r="D42" s="14" t="s">
         <v>84</v>
@@ -1857,14 +1859,14 @@
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
+      <c r="A43" s="21"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18" t="s">
+      <c r="A44" s="21"/>
+      <c r="B44" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="18"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="14" t="s">
         <v>85</v>
       </c>
@@ -1873,14 +1875,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
+      <c r="A45" s="21"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18" t="s">
+      <c r="A46" s="21"/>
+      <c r="B46" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="18"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="2" t="s">
         <v>78</v>
       </c>
@@ -1892,16 +1894,16 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
+      <c r="A47" s="21"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" t="s">
         <v>68</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -1912,8 +1914,8 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="13" t="s">
         <v>96</v>
       </c>
@@ -1925,8 +1927,8 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="13" t="s">
         <v>96</v>
       </c>
@@ -1944,11 +1946,11 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
+      <c r="A54" s="21"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17" t="s">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21" t="s">
         <v>87</v>
       </c>
       <c r="C55" s="13" t="s">
@@ -1963,8 +1965,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="13" t="s">
         <v>17</v>
       </c>
@@ -1979,8 +1981,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="13" t="s">
         <v>17</v>
       </c>
@@ -1995,8 +1997,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="13" t="s">
         <v>89</v>
       </c>
@@ -2011,20 +2013,20 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
+      <c r="A59" s="21"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
+      <c r="A60" s="21"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
+      <c r="A61" s="21"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
+      <c r="A62" s="21"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17" t="s">
+      <c r="A63" s="21"/>
+      <c r="B63" s="21" t="s">
         <v>56</v>
       </c>
       <c r="C63" s="13" t="s">
@@ -2041,8 +2043,8 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="13" t="s">
         <v>17</v>
       </c>
@@ -2057,8 +2059,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="13" t="s">
         <v>95</v>
       </c>
@@ -2073,8 +2075,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
       <c r="D66" s="14" t="s">
         <v>86</v>
       </c>
@@ -2083,8 +2085,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="13" t="s">
         <v>100</v>
       </c>
@@ -2099,16 +2101,16 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="7"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="7"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17" t="s">
+      <c r="A70" s="21"/>
+      <c r="B70" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C70" s="13" t="s">
@@ -2125,8 +2127,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="13" t="s">
         <v>95</v>
       </c>
@@ -2141,8 +2143,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="13" t="s">
         <v>95</v>
       </c>
@@ -2157,14 +2159,14 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
+      <c r="A73" s="21"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="17"/>
+      <c r="A74" s="21"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17" t="s">
+      <c r="A75" s="21"/>
+      <c r="B75" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C75" t="s">
@@ -2181,8 +2183,8 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
       <c r="C76" t="s">
         <v>116</v>
       </c>
@@ -2197,11 +2199,11 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
+      <c r="A77" s="21"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17" t="s">
+      <c r="A78" s="21"/>
+      <c r="B78" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C78" t="s">
@@ -2218,8 +2220,8 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="21"/>
       <c r="C79" t="s">
         <v>121</v>
       </c>
@@ -2234,8 +2236,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="21"/>
       <c r="C80" t="s">
         <v>25</v>
       </c>
@@ -2250,13 +2252,13 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="17"/>
+      <c r="A81" s="21"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="17"/>
+      <c r="A82" s="21"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="17"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="5" t="s">
         <v>49</v>
       </c>
@@ -2268,15 +2270,15 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="17"/>
+      <c r="A84" s="21"/>
       <c r="B84" s="5"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="17"/>
+      <c r="A85" s="21"/>
       <c r="B85" s="5"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="17"/>
+      <c r="A86" s="21"/>
       <c r="B86" s="5" t="s">
         <v>50</v>
       </c>
@@ -2288,13 +2290,13 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="17"/>
+      <c r="A87" s="21"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="17"/>
+      <c r="A88" s="21"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="17"/>
+      <c r="A89" s="21"/>
       <c r="B89" s="7" t="s">
         <v>46</v>
       </c>
@@ -2306,13 +2308,13 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="17" t="s">
+      <c r="A93" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C93" s="18"/>
+      <c r="C93" s="20"/>
       <c r="D93" s="1" t="s">
         <v>131</v>
       </c>
@@ -2324,25 +2326,25 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="17"/>
-      <c r="B94" s="17" t="s">
+      <c r="A94" s="21"/>
+      <c r="B94" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C94" s="17"/>
+      <c r="C94" s="21"/>
       <c r="D94" s="3" t="s">
         <v>132</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F94" s="21" t="s">
+      <c r="F94" s="18" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="17"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="21"/>
       <c r="D95" s="4" t="s">
         <v>130</v>
       </c>
@@ -2354,8 +2356,8 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="17"/>
-      <c r="B96" s="17" t="s">
+      <c r="A96" s="21"/>
+      <c r="B96" s="21" t="s">
         <v>141</v>
       </c>
       <c r="C96" t="s">
@@ -2372,8 +2374,8 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="17"/>
-      <c r="B97" s="17"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="21"/>
       <c r="C97" t="s">
         <v>87</v>
       </c>
@@ -2388,8 +2390,8 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="17"/>
-      <c r="B98" s="17" t="s">
+      <c r="A98" s="21"/>
+      <c r="B98" s="21" t="s">
         <v>144</v>
       </c>
       <c r="C98" t="s">
@@ -2401,13 +2403,13 @@
       <c r="E98" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F98" s="21" t="s">
+      <c r="F98" s="18" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="17"/>
-      <c r="B99" s="17"/>
+      <c r="A99" s="21"/>
+      <c r="B99" s="21"/>
       <c r="C99" t="s">
         <v>147</v>
       </c>
@@ -2422,8 +2424,8 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="17"/>
-      <c r="B100" s="17"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="21"/>
       <c r="C100" t="s">
         <v>17</v>
       </c>
@@ -2433,16 +2435,16 @@
       <c r="E100" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F100" s="21" t="s">
+      <c r="F100" s="18" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="17"/>
-      <c r="B101" s="17" t="s">
+      <c r="A101" s="21"/>
+      <c r="B101" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C101" s="17"/>
+      <c r="C101" s="21"/>
       <c r="D101" s="3" t="s">
         <v>128</v>
       </c>
@@ -2477,7 +2479,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B8:C8"/>
@@ -2507,6 +2508,7 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/URL Mapping.xlsx
+++ b/src/main/resources/URL Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA Projects\SpringBoot Projects\music-box\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的资源\java实践\javaee\music-box\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DA4C96-8AD5-4C6A-BC85-CBB6FDF84F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75ADFBC-3581-43E1-80BD-A5C492C43664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="169">
   <si>
     <t>/user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -701,10 +701,6 @@
   </si>
   <si>
     <t>[歌曲文件]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[图片文件]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -852,6 +848,26 @@
       </rPr>
       <t xml:space="preserve"> 的信息</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户缺少“头像属性”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户需要“修改头像”功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[图片文件]，歌曲id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件变量(@RequestPart)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -960,7 +976,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1003,6 +1019,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1016,7 +1038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1053,12 +1075,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1339,24 +1363,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="41.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="41.125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1373,35 +1397,35 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>161</v>
-      </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1409,197 +1433,188 @@
         <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="8"/>
+      <c r="D5" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="5" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B9" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="2" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="21"/>
+      <c r="B10" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="2" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
+      <c r="B11" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="2" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
-      <c r="B12" s="21" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
       <c r="C13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>21</v>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" t="s">
         <v>61</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="10" t="s">
+      <c r="E17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
-      <c r="B18" s="23" t="s">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>15</v>
@@ -1608,172 +1623,172 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="22"/>
+      <c r="C20" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
-      <c r="B22" s="7" t="s">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C23" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F23" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="1" t="s">
+      <c r="C24" s="23"/>
+      <c r="D24" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="5" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" s="11" t="s">
+      <c r="D26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B29" s="20" t="s">
         <v>68</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="20" t="s">
-        <v>97</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="21" t="s">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="21"/>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>15</v>
@@ -1782,212 +1797,212 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="21"/>
+      <c r="C37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="21" t="s">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
       <c r="C39" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="D39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="6"/>
       <c r="F39" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>75</v>
+        <v>108</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>74</v>
+      <c r="D41" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14" t="s">
+      <c r="C42" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="20" t="s">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="14" t="s">
+      <c r="C45" s="20"/>
+      <c r="D45" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E45" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="20" t="s">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="2" t="s">
+      <c r="C47" s="20"/>
+      <c r="D47" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="E47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B52" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>68</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F52" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="11" t="s">
+      <c r="E54" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I54" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="21" t="s">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" t="s">
+      <c r="E56" s="6"/>
+      <c r="F56" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>104</v>
+      <c r="D57" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>15</v>
@@ -1996,76 +2011,76 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="E59" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="21" t="s">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="E64" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>94</v>
+        <v>17</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>15</v>
@@ -2074,82 +2089,82 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
-      <c r="D66" s="14" t="s">
-        <v>86</v>
+      <c r="C66" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
-      <c r="C67" s="13" t="s">
+      <c r="D67" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E67" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="E68" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
-      <c r="B68" s="7"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="21"/>
       <c r="B69" s="7"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="21"/>
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="7"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="D71" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>163</v>
+      <c r="D72" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>15</v>
@@ -2158,357 +2173,390 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="21"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="21"/>
+      <c r="C73" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="21"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="21"/>
-      <c r="B75" s="21" t="s">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="21"/>
+      <c r="B76" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C75" t="s">
-        <v>116</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="21"/>
       <c r="C76" t="s">
         <v>116</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
+      <c r="C77" t="s">
+        <v>116</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E76" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="16" t="s">
+      <c r="E77" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="21" t="s">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="21"/>
+      <c r="B79" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E78" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="E79" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
-      <c r="B79" s="21"/>
-      <c r="C79" t="s">
-        <v>121</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" t="s">
+        <v>121</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D81" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E80" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="E81" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="21"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="5" t="s">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="21"/>
+      <c r="B84" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D84" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="21"/>
-      <c r="B84" s="5"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
       <c r="B85" s="5"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="21"/>
+      <c r="B87" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>52</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="D87" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="21"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="21"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="21"/>
-      <c r="B89" s="7" t="s">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="21"/>
+      <c r="B90" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>47</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="D90" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="21" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B93" s="20" t="s">
+      <c r="B94" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C93" s="20"/>
-      <c r="D93" s="1" t="s">
+      <c r="C94" s="20"/>
+      <c r="D94" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E93" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="E94" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="21"/>
-      <c r="B94" s="21" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="21"/>
+      <c r="B95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="13"/>
+      <c r="D95" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="21"/>
+      <c r="B96" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C94" s="21"/>
-      <c r="D94" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F94" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="21"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="4" t="s">
+      <c r="C96" s="13"/>
+      <c r="D96" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E95" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F95" s="16" t="s">
+      <c r="E96" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="21"/>
-      <c r="B96" s="21" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="21"/>
+      <c r="B97" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97" t="s">
         <v>141</v>
       </c>
-      <c r="C96" t="s">
-        <v>142</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E96" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F96" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="21"/>
-      <c r="B97" s="21"/>
-      <c r="C97" t="s">
+      <c r="E97" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="21"/>
+      <c r="B98" s="21"/>
+      <c r="C98" t="s">
         <v>87</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E97" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="E98" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="21"/>
-      <c r="B98" s="21" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="21"/>
+      <c r="B99" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C99" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C98" t="s">
-        <v>17</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F98" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="21"/>
-      <c r="B99" s="21"/>
-      <c r="C99" t="s">
-        <v>147</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="E99" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F99" s="16" t="s">
+      <c r="F99" s="18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" t="s">
+        <v>146</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="21"/>
+      <c r="B101" s="21"/>
+      <c r="C101" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F100" s="18" t="s">
+      <c r="D101" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="21"/>
-      <c r="B101" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C101" s="21"/>
-      <c r="D101" s="3" t="s">
+      <c r="E101" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="21"/>
+      <c r="B102" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C102" s="21"/>
+      <c r="D102" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E101" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F101" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+      <c r="E102" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C107" t="s">
         <v>126</v>
       </c>
-      <c r="D106" s="14" t="s">
+      <c r="D107" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C110" t="s">
         <v>54</v>
       </c>
-      <c r="D109" s="14" t="s">
+      <c r="D110" s="14" t="s">
         <v>85</v>
       </c>
     </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B114" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C114" s="24"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="24"/>
+      <c r="B115" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C115" s="24"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="29">
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="A93:A101"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A28:A47"/>
-    <mergeCell ref="B94:C95"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A8:A25"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="A51:A89"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="A94:A102"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A29:A48"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A9:A26"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="A52:A90"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B36:B37"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/URL Mapping.xlsx
+++ b/src/main/resources/URL Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的资源\java实践\javaee\music-box\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75ADFBC-3581-43E1-80BD-A5C492C43664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA944FD2-A941-431E-B5BA-37D0C85E52D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="170">
   <si>
     <t>/user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -870,12 +870,16 @@
     <t>文件变量(@RequestPart)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>正在进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -975,8 +979,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1025,6 +1035,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1038,7 +1054,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1069,26 +1085,53 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF66FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1365,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1407,6 +1450,9 @@
       <c r="C2" s="19" t="s">
         <v>155</v>
       </c>
+      <c r="D2" s="29" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1441,7 +1487,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="21" t="s">
         <v>168</v>
       </c>
       <c r="E5" s="11"/>
@@ -1461,11 +1507,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1477,13 +1523,13 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1492,11 +1538,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1505,11 +1551,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1518,11 +1564,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
+      <c r="A12" s="23"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -1539,8 +1585,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="15" t="s">
         <v>17</v>
       </c>
@@ -1555,8 +1601,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="15" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1617,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -1587,9 +1633,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="27" t="s">
         <v>61</v>
       </c>
       <c r="D17" t="s">
@@ -1603,11 +1649,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
+      <c r="A18" s="23"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="25" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -1624,8 +1670,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="15" t="s">
         <v>62</v>
       </c>
@@ -1640,13 +1686,13 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
+      <c r="A21" s="23"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
+      <c r="A22" s="23"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="7" t="s">
         <v>137</v>
       </c>
@@ -1664,11 +1710,11 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1680,11 +1726,11 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="23" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="23"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1696,7 +1742,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="5" t="s">
         <v>135</v>
       </c>
@@ -1711,13 +1757,13 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="1" t="s">
         <v>72</v>
       </c>
@@ -1726,11 +1772,11 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="20" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="1" t="s">
         <v>73</v>
       </c>
@@ -1739,17 +1785,21 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21" t="s">
+      <c r="A33" s="23"/>
+      <c r="B33" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="29" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1760,9 +1810,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" t="s">
+      <c r="A34" s="23"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="29" t="s">
         <v>98</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1776,15 +1826,16 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="29"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21" t="s">
+      <c r="A36" s="23"/>
+      <c r="B36" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="29" t="s">
         <v>97</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -1798,9 +1849,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" t="s">
+      <c r="A37" s="23"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="29" t="s">
         <v>98</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1814,14 +1865,16 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21" t="s">
+      <c r="A39" s="23"/>
+      <c r="B39" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="33" t="s">
         <v>108</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -1833,9 +1886,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="13" t="s">
+      <c r="A40" s="23"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="33" t="s">
         <v>108</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -1849,9 +1902,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="13" t="s">
+      <c r="A41" s="23"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="33" t="s">
         <v>113</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -1865,9 +1918,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="13" t="s">
+      <c r="A42" s="23"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="33" t="s">
         <v>113</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -1881,23 +1934,23 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="13"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="14" t="s">
         <v>84</v>
       </c>
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
+      <c r="A44" s="23"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="20" t="s">
+      <c r="A45" s="23"/>
+      <c r="B45" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="20"/>
+      <c r="C45" s="24"/>
       <c r="D45" s="14" t="s">
         <v>85</v>
       </c>
@@ -1906,14 +1959,14 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
+      <c r="A46" s="23"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="20" t="s">
+      <c r="A47" s="23"/>
+      <c r="B47" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="20"/>
+      <c r="C47" s="24"/>
       <c r="D47" s="2" t="s">
         <v>78</v>
       </c>
@@ -1925,13 +1978,13 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
+      <c r="A48" s="23"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C52" t="s">
@@ -1945,8 +1998,8 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="13" t="s">
         <v>96</v>
       </c>
@@ -1958,8 +2011,8 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="13" t="s">
         <v>96</v>
       </c>
@@ -1977,11 +2030,11 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
+      <c r="A55" s="23"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21" t="s">
+      <c r="A56" s="23"/>
+      <c r="B56" s="23" t="s">
         <v>87</v>
       </c>
       <c r="C56" s="13" t="s">
@@ -1996,8 +2049,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="13" t="s">
         <v>17</v>
       </c>
@@ -2012,8 +2065,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="13" t="s">
         <v>17</v>
       </c>
@@ -2028,8 +2081,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
       <c r="C59" s="13" t="s">
         <v>89</v>
       </c>
@@ -2044,20 +2097,20 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
+      <c r="A60" s="23"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
+      <c r="A61" s="23"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
+      <c r="A62" s="23"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
+      <c r="A63" s="23"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21" t="s">
+      <c r="A64" s="23"/>
+      <c r="B64" s="23" t="s">
         <v>56</v>
       </c>
       <c r="C64" s="13" t="s">
@@ -2074,8 +2127,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
       <c r="C65" s="13" t="s">
         <v>17</v>
       </c>
@@ -2090,8 +2143,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="13" t="s">
         <v>95</v>
       </c>
@@ -2106,8 +2159,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
       <c r="D67" s="14" t="s">
         <v>86</v>
       </c>
@@ -2116,8 +2169,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="13" t="s">
         <v>100</v>
       </c>
@@ -2132,16 +2185,16 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
+      <c r="A69" s="23"/>
       <c r="B69" s="7"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="7"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21" t="s">
+      <c r="A71" s="23"/>
+      <c r="B71" s="23" t="s">
         <v>57</v>
       </c>
       <c r="C71" s="13" t="s">
@@ -2158,8 +2211,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="13" t="s">
         <v>95</v>
       </c>
@@ -2174,8 +2227,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
       <c r="C73" s="13" t="s">
         <v>95</v>
       </c>
@@ -2190,14 +2243,14 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
+      <c r="A74" s="23"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
+      <c r="A75" s="23"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="21"/>
-      <c r="B76" s="21" t="s">
+      <c r="A76" s="23"/>
+      <c r="B76" s="23" t="s">
         <v>48</v>
       </c>
       <c r="C76" t="s">
@@ -2214,8 +2267,8 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="21"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="23"/>
       <c r="C77" t="s">
         <v>116</v>
       </c>
@@ -2230,11 +2283,11 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
+      <c r="A78" s="23"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="21" t="s">
+      <c r="A79" s="23"/>
+      <c r="B79" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C79" t="s">
@@ -2251,8 +2304,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="21"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
       <c r="C80" t="s">
         <v>121</v>
       </c>
@@ -2267,8 +2320,8 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="23"/>
       <c r="C81" t="s">
         <v>25</v>
       </c>
@@ -2283,13 +2336,13 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
+      <c r="A82" s="23"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
+      <c r="A83" s="23"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="21"/>
+      <c r="A84" s="23"/>
       <c r="B84" s="5" t="s">
         <v>49</v>
       </c>
@@ -2301,15 +2354,15 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="21"/>
+      <c r="A85" s="23"/>
       <c r="B85" s="5"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="21"/>
+      <c r="A86" s="23"/>
       <c r="B86" s="5"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="21"/>
+      <c r="A87" s="23"/>
       <c r="B87" s="5" t="s">
         <v>50</v>
       </c>
@@ -2321,13 +2374,13 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="21"/>
+      <c r="A88" s="23"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="21"/>
+      <c r="A89" s="23"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="21"/>
+      <c r="A90" s="23"/>
       <c r="B90" s="7" t="s">
         <v>46</v>
       </c>
@@ -2339,13 +2392,13 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="21" t="s">
+      <c r="A94" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C94" s="20"/>
+      <c r="C94" s="30"/>
       <c r="D94" s="1" t="s">
         <v>131</v>
       </c>
@@ -2357,11 +2410,11 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="21"/>
-      <c r="B95" t="s">
+      <c r="A95" s="23"/>
+      <c r="B95" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="13"/>
+      <c r="C95" s="28"/>
       <c r="D95" s="3" t="s">
         <v>132</v>
       </c>
@@ -2373,11 +2426,11 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="21"/>
-      <c r="B96" s="13" t="s">
+      <c r="A96" s="23"/>
+      <c r="B96" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="C96" s="13"/>
+      <c r="C96" s="33"/>
       <c r="D96" s="4" t="s">
         <v>130</v>
       </c>
@@ -2389,11 +2442,11 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="21"/>
-      <c r="B97" s="21" t="s">
+      <c r="A97" s="23"/>
+      <c r="B97" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D97" s="2" t="s">
@@ -2402,14 +2455,14 @@
       <c r="E97" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F97" s="25" t="s">
+      <c r="F97" s="21" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="21"/>
-      <c r="B98" s="21"/>
-      <c r="C98" t="s">
+      <c r="A98" s="23"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="26" t="s">
         <v>87</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -2423,11 +2476,11 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="21"/>
-      <c r="B99" s="21" t="s">
+      <c r="A99" s="23"/>
+      <c r="B99" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="29" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -2441,9 +2494,9 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="21"/>
-      <c r="B100" s="21"/>
-      <c r="C100" t="s">
+      <c r="A100" s="23"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="29" t="s">
         <v>146</v>
       </c>
       <c r="D100" s="4" t="s">
@@ -2457,9 +2510,9 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="21"/>
-      <c r="B101" s="21"/>
-      <c r="C101" t="s">
+      <c r="A101" s="23"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="29" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -2473,11 +2526,11 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="21"/>
-      <c r="B102" s="21" t="s">
+      <c r="A102" s="23"/>
+      <c r="B102" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C102" s="21"/>
+      <c r="C102" s="25"/>
       <c r="D102" s="3" t="s">
         <v>128</v>
       </c>
@@ -2511,36 +2564,23 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="24" t="s">
+      <c r="A114" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="B114" s="24" t="s">
+      <c r="B114" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C114" s="24"/>
+      <c r="C114" s="20"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="24"/>
-      <c r="B115" s="24" t="s">
+      <c r="A115" s="20"/>
+      <c r="B115" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="C115" s="24"/>
+      <c r="C115" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="A94:A102"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A29:A48"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B52:B54"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="A9:A26"/>
@@ -2557,8 +2597,22 @@
     <mergeCell ref="B39:B43"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="A94:A102"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A29:A48"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/URL Mapping.xlsx
+++ b/src/main/resources/URL Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的资源\java实践\javaee\music-box\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA Projects\SpringBoot Projects\music-box\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75ADFBC-3581-43E1-80BD-A5C492C43664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9836CF-3CB4-474B-B887-6B5122F8D72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="170">
   <si>
     <t>/user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -870,12 +870,16 @@
     <t>文件变量(@RequestPart)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>正在进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -975,8 +979,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1025,6 +1035,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1038,7 +1054,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1069,11 +1085,25 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1081,14 +1111,20 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF66FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1365,22 +1401,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="41.125" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1397,7 +1433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -1407,8 +1443,11 @@
       <c r="C2" s="19" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D2" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -1425,7 +1464,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1439,14 +1478,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="21" t="s">
         <v>168</v>
       </c>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1460,12 +1499,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1476,14 +1515,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1491,12 +1530,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="23" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1504,12 +1543,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="23" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1517,12 +1556,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -1538,9 +1577,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="15" t="s">
         <v>17</v>
       </c>
@@ -1554,9 +1593,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="15" t="s">
         <v>23</v>
       </c>
@@ -1570,9 +1609,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -1586,10 +1625,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="19" t="s">
         <v>61</v>
       </c>
       <c r="D17" t="s">
@@ -1602,12 +1641,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -1623,9 +1662,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="15" t="s">
         <v>62</v>
       </c>
@@ -1639,14 +1678,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
       <c r="B23" s="7" t="s">
         <v>137</v>
       </c>
@@ -1663,12 +1702,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="23" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1679,12 +1718,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="23" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="23"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1695,8 +1734,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
       <c r="B26" s="5" t="s">
         <v>135</v>
       </c>
@@ -1710,14 +1749,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="1" t="s">
         <v>72</v>
       </c>
@@ -1725,12 +1764,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="20" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="1" t="s">
         <v>73</v>
       </c>
@@ -1738,18 +1777,18 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="31" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1759,10 +1798,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31" t="s">
         <v>98</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1775,32 +1814,31 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="27"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="27"/>
+      <c r="B36" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="31" t="s">
         <v>97</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="E36" s="6"/>
       <c r="F36" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31" t="s">
         <v>98</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1813,15 +1851,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="27"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="27"/>
+      <c r="B39" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="25" t="s">
         <v>108</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -1832,10 +1870,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="13" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="27"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="25" t="s">
         <v>108</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -1848,10 +1886,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="13" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="25" t="s">
         <v>113</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -1864,10 +1902,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="13" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="27"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="25" t="s">
         <v>113</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -1880,24 +1918,24 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="27"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="13"/>
       <c r="D43" s="14" t="s">
         <v>84</v>
       </c>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="20" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="27"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="27"/>
+      <c r="B45" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="20"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="14" t="s">
         <v>85</v>
       </c>
@@ -1905,15 +1943,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="20" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="27"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="27"/>
+      <c r="B47" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="20"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="2" t="s">
         <v>78</v>
       </c>
@@ -1924,14 +1962,14 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="21" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="27"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C52" t="s">
@@ -1944,9 +1982,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
       <c r="C53" s="13" t="s">
         <v>96</v>
       </c>
@@ -1957,9 +1995,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="13" t="s">
         <v>96</v>
       </c>
@@ -1976,12 +2014,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="27"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27" t="s">
         <v>87</v>
       </c>
       <c r="C56" s="13" t="s">
@@ -1995,9 +2033,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
       <c r="C57" s="13" t="s">
         <v>17</v>
       </c>
@@ -2011,9 +2049,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
       <c r="C58" s="13" t="s">
         <v>17</v>
       </c>
@@ -2027,9 +2065,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
       <c r="C59" s="13" t="s">
         <v>89</v>
       </c>
@@ -2043,21 +2081,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="27"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="27"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="27"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="27"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27" t="s">
         <v>56</v>
       </c>
       <c r="C64" s="13" t="s">
@@ -2073,9 +2111,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
       <c r="C65" s="13" t="s">
         <v>17</v>
       </c>
@@ -2089,9 +2127,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
       <c r="C66" s="13" t="s">
         <v>95</v>
       </c>
@@ -2105,9 +2143,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
       <c r="D67" s="14" t="s">
         <v>86</v>
       </c>
@@ -2115,9 +2153,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
       <c r="C68" s="13" t="s">
         <v>100</v>
       </c>
@@ -2131,17 +2169,17 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="27"/>
       <c r="B69" s="7"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="27"/>
       <c r="B70" s="7"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="27"/>
+      <c r="B71" s="27" t="s">
         <v>57</v>
       </c>
       <c r="C71" s="13" t="s">
@@ -2157,9 +2195,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
       <c r="C72" s="13" t="s">
         <v>95</v>
       </c>
@@ -2173,9 +2211,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
       <c r="C73" s="13" t="s">
         <v>95</v>
       </c>
@@ -2189,15 +2227,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="21"/>
-      <c r="B76" s="21" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="27"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="27"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27" t="s">
         <v>48</v>
       </c>
       <c r="C76" t="s">
@@ -2213,9 +2251,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="21"/>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
       <c r="C77" t="s">
         <v>116</v>
       </c>
@@ -2229,12 +2267,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="21" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="27"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="27"/>
+      <c r="B79" s="27" t="s">
         <v>45</v>
       </c>
       <c r="C79" t="s">
@@ -2250,9 +2288,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="21"/>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
       <c r="C80" t="s">
         <v>121</v>
       </c>
@@ -2266,9 +2304,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
       <c r="C81" t="s">
         <v>25</v>
       </c>
@@ -2282,14 +2320,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="21"/>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="27"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="27"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="27"/>
       <c r="B84" s="5" t="s">
         <v>49</v>
       </c>
@@ -2300,16 +2338,16 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="21"/>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="27"/>
       <c r="B85" s="5"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="21"/>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="27"/>
       <c r="B86" s="5"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="21"/>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="27"/>
       <c r="B87" s="5" t="s">
         <v>50</v>
       </c>
@@ -2320,14 +2358,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="21"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="21"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="21"/>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="27"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="27"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="27"/>
       <c r="B90" s="7" t="s">
         <v>46</v>
       </c>
@@ -2338,14 +2376,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="21" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C94" s="20"/>
+      <c r="C94" s="29"/>
       <c r="D94" s="1" t="s">
         <v>131</v>
       </c>
@@ -2356,12 +2394,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="21"/>
-      <c r="B95" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="27"/>
+      <c r="B95" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="13"/>
+      <c r="C95" s="32"/>
       <c r="D95" s="3" t="s">
         <v>132</v>
       </c>
@@ -2372,12 +2410,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="21"/>
-      <c r="B96" s="13" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="27"/>
+      <c r="B96" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C96" s="13"/>
+      <c r="C96" s="25"/>
       <c r="D96" s="4" t="s">
         <v>130</v>
       </c>
@@ -2388,12 +2426,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="21"/>
-      <c r="B97" s="21" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="27"/>
+      <c r="B97" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="23" t="s">
         <v>141</v>
       </c>
       <c r="D97" s="2" t="s">
@@ -2402,14 +2440,14 @@
       <c r="E97" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F97" s="25" t="s">
+      <c r="F97" s="21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="21"/>
-      <c r="B98" s="21"/>
-      <c r="C98" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="27"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="22" t="s">
         <v>87</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -2422,12 +2460,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="21"/>
-      <c r="B99" s="21" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="27"/>
+      <c r="B99" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -2440,10 +2478,10 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="21"/>
-      <c r="B100" s="21"/>
-      <c r="C100" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="27"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="24" t="s">
         <v>146</v>
       </c>
       <c r="D100" s="4" t="s">
@@ -2456,10 +2494,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="21"/>
-      <c r="B101" s="21"/>
-      <c r="C101" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="27"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -2472,12 +2510,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="21"/>
-      <c r="B102" s="21" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="27"/>
+      <c r="B102" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C102" s="21"/>
+      <c r="C102" s="30"/>
       <c r="D102" s="3" t="s">
         <v>128</v>
       </c>
@@ -2488,7 +2526,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>125</v>
       </c>
@@ -2499,7 +2537,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>53</v>
       </c>
@@ -2510,24 +2548,24 @@
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="24" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="B114" s="24" t="s">
+      <c r="B114" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C114" s="24"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="24"/>
-      <c r="B115" s="24" t="s">
+      <c r="C114" s="20"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="20"/>
+      <c r="B115" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="C115" s="24"/>
+      <c r="C115" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="33">
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B9:C9"/>
@@ -2541,6 +2579,12 @@
     <mergeCell ref="A29:A48"/>
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B95:C95"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="A9:A26"/>
@@ -2550,15 +2594,14 @@
     <mergeCell ref="B56:B59"/>
     <mergeCell ref="B64:B68"/>
     <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B36:B37"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B33:B34"/>
     <mergeCell ref="B39:B43"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B19:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/URL Mapping.xlsx
+++ b/src/main/resources/URL Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA Projects\SpringBoot Projects\music-box\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9836CF-3CB4-474B-B887-6B5122F8D72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E66C9A-2D26-4D4C-A82E-989DF03DBF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -712,10 +712,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/visiblility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/album</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -745,10 +741,6 @@
   </si>
   <si>
     <t>music</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visibility</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -873,6 +865,13 @@
   <si>
     <t>正在进行</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/visibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visibility</t>
   </si>
 </sst>
 </file>
@@ -1093,22 +1092,22 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1401,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1435,30 +1434,30 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>155</v>
-      </c>
       <c r="D2" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>41</v>
@@ -1472,7 +1471,7 @@
         <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>40</v>
@@ -1481,7 +1480,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="D5" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E5" s="11"/>
     </row>
@@ -1493,18 +1492,18 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1516,13 +1515,13 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="31"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1531,11 +1530,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="31" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1544,11 +1543,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="31" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1557,11 +1556,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="29"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -1578,8 +1577,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="15" t="s">
         <v>17</v>
       </c>
@@ -1594,8 +1593,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="15" t="s">
         <v>23</v>
       </c>
@@ -1610,8 +1609,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -1626,8 +1625,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="19" t="s">
         <v>61</v>
       </c>
@@ -1642,11 +1641,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+      <c r="A18" s="29"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="27" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -1663,8 +1662,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="15" t="s">
         <v>62</v>
       </c>
@@ -1679,13 +1678,13 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
+      <c r="A21" s="29"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
+      <c r="A22" s="29"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="7" t="s">
         <v>137</v>
       </c>
@@ -1703,11 +1702,11 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="31" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="31"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1719,11 +1718,11 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="31" t="s">
+      <c r="A25" s="29"/>
+      <c r="B25" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="31"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1735,7 +1734,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="5" t="s">
         <v>135</v>
       </c>
@@ -1743,20 +1742,20 @@
         <v>29</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="31"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="1" t="s">
         <v>72</v>
       </c>
@@ -1765,11 +1764,11 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="31" t="s">
+      <c r="A30" s="29"/>
+      <c r="B30" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="31"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="1" t="s">
         <v>73</v>
       </c>
@@ -1778,17 +1777,17 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
+      <c r="A31" s="29"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
+      <c r="A32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="31" t="s">
+      <c r="A33" s="29"/>
+      <c r="B33" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1799,9 +1798,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31" t="s">
+      <c r="A34" s="29"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26" t="s">
         <v>98</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1815,16 +1814,16 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="31" t="s">
+      <c r="A36" s="29"/>
+      <c r="B36" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -1836,9 +1835,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26" t="s">
         <v>98</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1852,10 +1851,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
+      <c r="A38" s="29"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="28" t="s">
         <v>44</v>
       </c>
@@ -1871,7 +1870,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="28"/>
       <c r="C40" s="25" t="s">
         <v>108</v>
@@ -1887,7 +1886,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="28"/>
       <c r="C41" s="25" t="s">
         <v>113</v>
@@ -1903,7 +1902,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="28"/>
       <c r="C42" s="25" t="s">
         <v>113</v>
@@ -1919,7 +1918,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="28"/>
       <c r="C43" s="13"/>
       <c r="D43" s="14" t="s">
@@ -1928,14 +1927,14 @@
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
+      <c r="A44" s="29"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="26" t="s">
+      <c r="A45" s="29"/>
+      <c r="B45" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="26"/>
+      <c r="C45" s="30"/>
       <c r="D45" s="14" t="s">
         <v>85</v>
       </c>
@@ -1944,14 +1943,14 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
+      <c r="A46" s="29"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="26" t="s">
+      <c r="A47" s="29"/>
+      <c r="B47" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="26"/>
+      <c r="C47" s="30"/>
       <c r="D47" s="2" t="s">
         <v>78</v>
       </c>
@@ -1963,13 +1962,13 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
+      <c r="A48" s="29"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C52" t="s">
@@ -1983,8 +1982,8 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
       <c r="C53" s="13" t="s">
         <v>96</v>
       </c>
@@ -1996,8 +1995,8 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="13" t="s">
         <v>96</v>
       </c>
@@ -2015,11 +2014,11 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
+      <c r="A55" s="29"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27" t="s">
+      <c r="A56" s="29"/>
+      <c r="B56" s="29" t="s">
         <v>87</v>
       </c>
       <c r="C56" s="13" t="s">
@@ -2034,8 +2033,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="13" t="s">
         <v>17</v>
       </c>
@@ -2050,8 +2049,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
       <c r="C58" s="13" t="s">
         <v>17</v>
       </c>
@@ -2066,8 +2065,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="13" t="s">
         <v>89</v>
       </c>
@@ -2082,20 +2081,20 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
+      <c r="A60" s="29"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
+      <c r="A61" s="29"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
+      <c r="A62" s="29"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
+      <c r="A63" s="29"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27" t="s">
+      <c r="A64" s="29"/>
+      <c r="B64" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C64" s="13" t="s">
@@ -2112,8 +2111,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="29"/>
       <c r="C65" s="13" t="s">
         <v>17</v>
       </c>
@@ -2128,8 +2127,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
+      <c r="A66" s="29"/>
+      <c r="B66" s="29"/>
       <c r="C66" s="13" t="s">
         <v>95</v>
       </c>
@@ -2144,8 +2143,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="29"/>
       <c r="D67" s="14" t="s">
         <v>86</v>
       </c>
@@ -2154,8 +2153,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
       <c r="C68" s="13" t="s">
         <v>100</v>
       </c>
@@ -2170,23 +2169,23 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="27"/>
+      <c r="A69" s="29"/>
       <c r="B69" s="7"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="27"/>
+      <c r="A70" s="29"/>
       <c r="B70" s="7"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27" t="s">
+      <c r="A71" s="29"/>
+      <c r="B71" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>15</v>
@@ -2196,13 +2195,13 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
+      <c r="A72" s="29"/>
+      <c r="B72" s="29"/>
       <c r="C72" s="13" t="s">
         <v>95</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>15</v>
@@ -2212,13 +2211,13 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
+      <c r="A73" s="29"/>
+      <c r="B73" s="29"/>
       <c r="C73" s="13" t="s">
         <v>95</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>15</v>
@@ -2228,14 +2227,14 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="27"/>
+      <c r="A74" s="29"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="27"/>
+      <c r="A75" s="29"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27" t="s">
+      <c r="A76" s="29"/>
+      <c r="B76" s="29" t="s">
         <v>48</v>
       </c>
       <c r="C76" t="s">
@@ -2252,8 +2251,8 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
+      <c r="A77" s="29"/>
+      <c r="B77" s="29"/>
       <c r="C77" t="s">
         <v>116</v>
       </c>
@@ -2268,11 +2267,11 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="27"/>
+      <c r="A78" s="29"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27" t="s">
+      <c r="A79" s="29"/>
+      <c r="B79" s="29" t="s">
         <v>45</v>
       </c>
       <c r="C79" t="s">
@@ -2289,8 +2288,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
+      <c r="A80" s="29"/>
+      <c r="B80" s="29"/>
       <c r="C80" t="s">
         <v>121</v>
       </c>
@@ -2305,8 +2304,8 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
+      <c r="A81" s="29"/>
+      <c r="B81" s="29"/>
       <c r="C81" t="s">
         <v>25</v>
       </c>
@@ -2321,13 +2320,13 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="27"/>
+      <c r="A82" s="29"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="27"/>
+      <c r="A83" s="29"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="27"/>
+      <c r="A84" s="29"/>
       <c r="B84" s="5" t="s">
         <v>49</v>
       </c>
@@ -2339,15 +2338,15 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="27"/>
+      <c r="A85" s="29"/>
       <c r="B85" s="5"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="27"/>
+      <c r="A86" s="29"/>
       <c r="B86" s="5"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="27"/>
+      <c r="A87" s="29"/>
       <c r="B87" s="5" t="s">
         <v>50</v>
       </c>
@@ -2359,13 +2358,13 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="27"/>
+      <c r="A88" s="29"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="27"/>
+      <c r="A89" s="29"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="27"/>
+      <c r="A90" s="29"/>
       <c r="B90" s="7" t="s">
         <v>46</v>
       </c>
@@ -2377,13 +2376,13 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="27" t="s">
+      <c r="A94" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="29" t="s">
+      <c r="B94" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C94" s="29"/>
+      <c r="C94" s="31"/>
       <c r="D94" s="1" t="s">
         <v>131</v>
       </c>
@@ -2395,7 +2394,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="27"/>
+      <c r="A95" s="29"/>
       <c r="B95" s="32" t="s">
         <v>17</v>
       </c>
@@ -2407,11 +2406,11 @@
         <v>15</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="27"/>
+      <c r="A96" s="29"/>
       <c r="B96" s="25" t="s">
         <v>121</v>
       </c>
@@ -2427,8 +2426,8 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="27"/>
-      <c r="B97" s="30" t="s">
+      <c r="A97" s="29"/>
+      <c r="B97" s="27" t="s">
         <v>140</v>
       </c>
       <c r="C97" s="23" t="s">
@@ -2441,12 +2440,12 @@
         <v>15</v>
       </c>
       <c r="F97" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="27"/>
-      <c r="B98" s="30"/>
+      <c r="A98" s="29"/>
+      <c r="B98" s="27"/>
       <c r="C98" s="22" t="s">
         <v>87</v>
       </c>
@@ -2461,61 +2460,61 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="27"/>
+      <c r="A99" s="29"/>
       <c r="B99" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C99" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="27"/>
+      <c r="A100" s="29"/>
       <c r="B100" s="28"/>
       <c r="C100" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F100" s="16" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="27"/>
+      <c r="A101" s="29"/>
       <c r="B101" s="28"/>
       <c r="C101" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="27"/>
-      <c r="B102" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="C102" s="30"/>
+      <c r="A102" s="29"/>
+      <c r="B102" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C102" s="27"/>
       <c r="D102" s="3" t="s">
         <v>128</v>
       </c>
@@ -2523,7 +2522,7 @@
         <v>15</v>
       </c>
       <c r="F102" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -2550,27 +2549,36 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C114" s="20"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="20"/>
       <c r="B115" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C115" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A9:A26"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="A52:A90"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B97:B98"/>
     <mergeCell ref="B99:B101"/>
     <mergeCell ref="B102:C102"/>
@@ -2585,20 +2593,11 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B95:C95"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A9:A26"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="A52:A90"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/URL Mapping.xlsx
+++ b/src/main/resources/URL Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA Projects\SpringBoot Projects\music-box\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的资源\java实践\javaee\music-box\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E66C9A-2D26-4D4C-A82E-989DF03DBF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C02159E-9E4D-419E-896F-B0791F18AE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="3735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="170">
   <si>
     <t>/user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -712,6 +712,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/visiblility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/album</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -741,6 +745,10 @@
   </si>
   <si>
     <t>music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visibility</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -865,13 +873,6 @@
   <si>
     <t>正在进行</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/visibility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visibility</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1054,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1088,29 +1089,32 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1401,21 +1405,21 @@
   <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="41.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="41.125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1432,38 +1436,38 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" t="s">
         <v>157</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" t="s">
-        <v>155</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1471,20 +1475,20 @@
         <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>
       <c r="D5" s="21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1492,18 +1496,18 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1514,14 +1518,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1529,12 +1533,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1542,12 +1546,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1555,10 +1559,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
       <c r="B13" s="29" t="s">
         <v>9</v>
@@ -1576,7 +1580,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="15" t="s">
@@ -1592,7 +1596,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="15" t="s">
@@ -1608,7 +1612,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
       <c r="C16" t="s">
@@ -1624,10 +1628,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="23" t="s">
         <v>61</v>
       </c>
       <c r="D17" t="s">
@@ -1640,12 +1644,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="29"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="32" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -1661,9 +1665,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="29"/>
-      <c r="B20" s="27"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="15" t="s">
         <v>62</v>
       </c>
@@ -1677,13 +1681,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="29"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="29"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="29"/>
       <c r="B23" s="7" t="s">
         <v>137</v>
@@ -1701,12 +1705,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="29"/>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="26"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1717,12 +1721,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="29"/>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="26"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1733,7 +1737,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="29"/>
       <c r="B26" s="5" t="s">
         <v>135</v>
@@ -1742,20 +1746,20 @@
         <v>29</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="26"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="1" t="s">
         <v>72</v>
       </c>
@@ -1763,12 +1767,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="29"/>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="26"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="1" t="s">
         <v>73</v>
       </c>
@@ -1776,18 +1780,18 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="29"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="29"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="29"/>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1797,10 +1801,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="29"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26" t="s">
+      <c r="B34" s="30"/>
+      <c r="C34" s="25" t="s">
         <v>98</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1813,31 +1817,33 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="29"/>
       <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="25"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="29"/>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="6"/>
+      <c r="E36" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="F36" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="29"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26" t="s">
+      <c r="B37" s="30"/>
+      <c r="C37" s="25" t="s">
         <v>98</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1850,15 +1856,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="29"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="29"/>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="27" t="s">
         <v>108</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -1869,10 +1875,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="29"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="25" t="s">
+      <c r="B40" s="30"/>
+      <c r="C40" s="27" t="s">
         <v>108</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -1885,10 +1891,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="29"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="25" t="s">
+      <c r="B41" s="30"/>
+      <c r="C41" s="27" t="s">
         <v>113</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -1901,10 +1907,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="29"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="30"/>
+      <c r="C42" s="27" t="s">
         <v>113</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -1917,24 +1923,24 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="29"/>
-      <c r="B43" s="28"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="13"/>
       <c r="D43" s="14" t="s">
         <v>84</v>
       </c>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="29"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="29"/>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="30"/>
+      <c r="C45" s="28"/>
       <c r="D45" s="14" t="s">
         <v>85</v>
       </c>
@@ -1942,15 +1948,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="29"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="29"/>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="30"/>
+      <c r="C47" s="28"/>
       <c r="D47" s="2" t="s">
         <v>78</v>
       </c>
@@ -1961,10 +1967,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="29"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="29" t="s">
         <v>138</v>
       </c>
@@ -1981,7 +1987,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="29"/>
       <c r="B53" s="29"/>
       <c r="C53" s="13" t="s">
@@ -1994,7 +2000,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="29"/>
       <c r="B54" s="29"/>
       <c r="C54" s="13" t="s">
@@ -2013,10 +2019,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="29"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="29"/>
       <c r="B56" s="29" t="s">
         <v>87</v>
@@ -2032,7 +2038,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="29"/>
       <c r="B57" s="29"/>
       <c r="C57" s="13" t="s">
@@ -2048,7 +2054,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="29"/>
       <c r="B58" s="29"/>
       <c r="C58" s="13" t="s">
@@ -2064,7 +2070,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="29"/>
       <c r="B59" s="29"/>
       <c r="C59" s="13" t="s">
@@ -2080,19 +2086,19 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="29"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="29"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="29"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="29"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="29"/>
       <c r="B64" s="29" t="s">
         <v>56</v>
@@ -2110,7 +2116,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="29"/>
       <c r="B65" s="29"/>
       <c r="C65" s="13" t="s">
@@ -2126,7 +2132,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="29"/>
       <c r="B66" s="29"/>
       <c r="C66" s="13" t="s">
@@ -2142,7 +2148,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="29"/>
       <c r="B67" s="29"/>
       <c r="D67" s="14" t="s">
@@ -2152,7 +2158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="29"/>
       <c r="B68" s="29"/>
       <c r="C68" s="13" t="s">
@@ -2168,15 +2174,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="29"/>
       <c r="B69" s="7"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="29"/>
       <c r="B70" s="7"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="29"/>
       <c r="B71" s="29" t="s">
         <v>57</v>
@@ -2185,7 +2191,7 @@
         <v>68</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>15</v>
@@ -2194,14 +2200,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="29"/>
       <c r="B72" s="29"/>
       <c r="C72" s="13" t="s">
         <v>95</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>15</v>
@@ -2210,14 +2216,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="29"/>
       <c r="B73" s="29"/>
       <c r="C73" s="13" t="s">
         <v>95</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>15</v>
@@ -2226,13 +2232,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="29"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="29"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="29"/>
       <c r="B76" s="29" t="s">
         <v>48</v>
@@ -2250,7 +2256,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="29"/>
       <c r="B77" s="29"/>
       <c r="C77" t="s">
@@ -2266,10 +2272,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="29"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="29"/>
       <c r="B79" s="29" t="s">
         <v>45</v>
@@ -2287,7 +2293,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="29"/>
       <c r="B80" s="29"/>
       <c r="C80" t="s">
@@ -2303,7 +2309,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="29"/>
       <c r="B81" s="29"/>
       <c r="C81" t="s">
@@ -2319,13 +2325,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="29"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="29"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="29"/>
       <c r="B84" s="5" t="s">
         <v>49</v>
@@ -2337,15 +2343,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="29"/>
       <c r="B85" s="5"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="29"/>
       <c r="B86" s="5"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="29"/>
       <c r="B87" s="5" t="s">
         <v>50</v>
@@ -2357,13 +2363,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="29"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="29"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="29"/>
       <c r="B90" s="7" t="s">
         <v>46</v>
@@ -2375,7 +2381,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="29" t="s">
         <v>10</v>
       </c>
@@ -2393,12 +2399,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="29"/>
-      <c r="B95" s="32" t="s">
+      <c r="B95" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="32"/>
+      <c r="C95" s="24"/>
       <c r="D95" s="3" t="s">
         <v>132</v>
       </c>
@@ -2406,15 +2412,15 @@
         <v>15</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="29"/>
-      <c r="B96" s="25" t="s">
+      <c r="B96" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="C96" s="25"/>
+      <c r="C96" s="27"/>
       <c r="D96" s="4" t="s">
         <v>130</v>
       </c>
@@ -2425,9 +2431,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="29"/>
-      <c r="B97" s="27" t="s">
+      <c r="B97" s="32" t="s">
         <v>140</v>
       </c>
       <c r="C97" s="23" t="s">
@@ -2440,12 +2446,12 @@
         <v>15</v>
       </c>
       <c r="F97" s="21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="29"/>
-      <c r="B98" s="27"/>
+      <c r="B98" s="32"/>
       <c r="C98" s="22" t="s">
         <v>87</v>
       </c>
@@ -2459,62 +2465,62 @@
         <v>139</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="29"/>
-      <c r="B99" s="28" t="s">
+      <c r="B99" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="29"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="29"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="29"/>
+      <c r="B102" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="C99" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" s="18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="29"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F100" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="29"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F101" s="18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="29"/>
-      <c r="B102" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="C102" s="27"/>
+      <c r="C102" s="32"/>
       <c r="D102" s="3" t="s">
         <v>128</v>
       </c>
@@ -2522,10 +2528,10 @@
         <v>15</v>
       </c>
       <c r="F102" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>125</v>
       </c>
@@ -2536,7 +2542,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>53</v>
       </c>
@@ -2547,24 +2553,37 @@
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C114" s="20"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="20"/>
       <c r="B115" s="20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C115" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="29">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="A94:A102"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A29:A48"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B52:B54"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="A9:A26"/>
@@ -2574,30 +2593,13 @@
     <mergeCell ref="B56:B59"/>
     <mergeCell ref="B64:B68"/>
     <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B36:B37"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B33:B34"/>
     <mergeCell ref="B39:B43"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="A94:A102"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A29:A48"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/URL Mapping.xlsx
+++ b/src/main/resources/URL Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的资源\java实践\javaee\music-box\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA Projects\SpringBoot Projects\music-box\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C02159E-9E4D-419E-896F-B0791F18AE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD84A6A-5D68-430D-B8FA-31A7E0668D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="3735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="171">
   <si>
     <t>/user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -604,18 +604,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>删除本地保存的指定歌曲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除本地保存的全部歌曲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分页获取全部本地下载的歌曲信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/{music_id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -733,10 +721,6 @@
   </si>
   <si>
     <t>{music_menu_id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>music_menu, album</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -863,15 +847,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[图片文件]，歌曲id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文件变量(@RequestPart)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>正在进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[图片文件]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，歌曲id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>music_menu, album ? 推荐传albumDto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>download从技术角度不可能实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -879,7 +903,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -985,8 +1009,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1025,12 +1057,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1038,6 +1064,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,7 +1092,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1084,39 +1122,54 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1404,22 +1457,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="41.125" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1435,60 +1488,67 @@
       <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
         <v>153</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" t="s">
-        <v>157</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>59</v>
+        <v>155</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="8"/>
-      <c r="D5" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1496,13 +1556,13 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>33</v>
       </c>
@@ -1518,14 +1578,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="33"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1533,12 +1593,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="33" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1546,12 +1606,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="33" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1559,12 +1619,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -1580,9 +1640,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="15" t="s">
         <v>17</v>
       </c>
@@ -1596,9 +1656,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="15" t="s">
         <v>23</v>
       </c>
@@ -1612,9 +1672,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -1628,28 +1688,28 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="23" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="35" t="s">
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="25" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -1665,9 +1725,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="32"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="15" t="s">
         <v>62</v>
       </c>
@@ -1681,19 +1741,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
       <c r="B23" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>65</v>
@@ -1705,12 +1765,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="29"/>
-      <c r="B24" s="33" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="33"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1721,12 +1781,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
-      <c r="B25" s="33" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="33"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1737,29 +1797,29 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
       <c r="B26" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="31"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="1" t="s">
         <v>72</v>
       </c>
@@ -1767,12 +1827,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="29"/>
-      <c r="B30" s="31" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="31"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="1" t="s">
         <v>73</v>
       </c>
@@ -1780,18 +1840,18 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="29"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="29"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="29"/>
-      <c r="B33" s="30" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="31" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1801,10 +1861,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="25" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="31" t="s">
         <v>98</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1817,33 +1877,31 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="29"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="25"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="29"/>
-      <c r="B36" s="30" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="27"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="31"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="27"/>
+      <c r="B36" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="31" t="s">
         <v>97</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="E36" s="6"/>
       <c r="F36" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="29"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="25" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="31" t="s">
         <v>98</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1856,15 +1914,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="29"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="27"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="27"/>
+      <c r="B39" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="23" t="s">
         <v>108</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -1875,10 +1933,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="29"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="27" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="27"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="23" t="s">
         <v>108</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -1891,10 +1949,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="27" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="27"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="23" t="s">
         <v>113</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -1907,10 +1965,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="29"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="27" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="27"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="23" t="s">
         <v>113</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -1923,20 +1981,20 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="29"/>
-      <c r="B43" s="30"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="27"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="13"/>
       <c r="D43" s="14" t="s">
         <v>84</v>
       </c>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="29"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="29"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="27"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="27"/>
       <c r="B45" s="28" t="s">
         <v>77</v>
       </c>
@@ -1948,11 +2006,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="29"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="29"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="27"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="27"/>
       <c r="B47" s="28" t="s">
         <v>57</v>
       </c>
@@ -1967,14 +2025,14 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="29"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B52" s="29" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="27"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C52" t="s">
@@ -1987,9 +2045,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
       <c r="C53" s="13" t="s">
         <v>96</v>
       </c>
@@ -2000,9 +2058,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="13" t="s">
         <v>96</v>
       </c>
@@ -2019,12 +2077,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="29"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="27"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27" t="s">
         <v>87</v>
       </c>
       <c r="C56" s="13" t="s">
@@ -2038,9 +2096,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
       <c r="C57" s="13" t="s">
         <v>17</v>
       </c>
@@ -2054,9 +2112,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
       <c r="C58" s="13" t="s">
         <v>17</v>
       </c>
@@ -2070,9 +2128,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
       <c r="C59" s="13" t="s">
         <v>89</v>
       </c>
@@ -2086,28 +2144,28 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="29"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="29"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="29"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="29"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="27"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="27"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="27"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="27"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27" t="s">
         <v>56</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>15</v>
@@ -2116,9 +2174,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29"/>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
       <c r="C65" s="13" t="s">
         <v>17</v>
       </c>
@@ -2132,9 +2190,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="29"/>
-      <c r="B66" s="29"/>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
       <c r="C66" s="13" t="s">
         <v>95</v>
       </c>
@@ -2148,9 +2206,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
       <c r="D67" s="14" t="s">
         <v>86</v>
       </c>
@@ -2158,9 +2216,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
       <c r="C68" s="13" t="s">
         <v>100</v>
       </c>
@@ -2174,24 +2232,24 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="29"/>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="27"/>
       <c r="B69" s="7"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="29"/>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="27"/>
       <c r="B70" s="7"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="27"/>
+      <c r="B71" s="27" t="s">
         <v>57</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>15</v>
@@ -2200,14 +2258,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
       <c r="C72" s="13" t="s">
         <v>95</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>15</v>
@@ -2216,14 +2274,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="29"/>
-      <c r="B73" s="29"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
       <c r="C73" s="13" t="s">
         <v>95</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>15</v>
@@ -2232,15 +2290,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="29"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="29"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="27"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="27"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27" t="s">
         <v>48</v>
       </c>
       <c r="C76" t="s">
@@ -2253,12 +2311,12 @@
         <v>15</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="29"/>
-      <c r="B77" s="29"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
       <c r="C77" t="s">
         <v>116</v>
       </c>
@@ -2272,67 +2330,43 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="29"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="29"/>
-      <c r="B79" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C79" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="29"/>
-      <c r="B80" s="29"/>
-      <c r="C80" t="s">
-        <v>121</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="29"/>
-      <c r="B81" s="29"/>
-      <c r="C81" t="s">
-        <v>25</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F81" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="29"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="29"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="29"/>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="27"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="27"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="E79" s="39"/>
+      <c r="F79" s="12"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="27"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="16"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="27"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="12"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="27"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="27"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="27"/>
       <c r="B84" s="5" t="s">
         <v>49</v>
       </c>
@@ -2343,16 +2377,16 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="29"/>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="27"/>
       <c r="B85" s="5"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="29"/>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="27"/>
       <c r="B86" s="5"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="29"/>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="27"/>
       <c r="B87" s="5" t="s">
         <v>50</v>
       </c>
@@ -2363,14 +2397,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="29"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="29"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="29"/>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="27"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="27"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="27"/>
       <c r="B90" s="7" t="s">
         <v>46</v>
       </c>
@@ -2381,16 +2415,16 @@
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="29" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="31" t="s">
+      <c r="B94" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C94" s="31"/>
+      <c r="C94" s="29"/>
       <c r="D94" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>15</v>
@@ -2399,150 +2433,150 @@
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="29"/>
-      <c r="B95" s="23" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="27"/>
+      <c r="B95" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="24"/>
+      <c r="C95" s="30"/>
       <c r="D95" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="29"/>
-      <c r="B96" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="27"/>
+      <c r="B96" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C96" s="36"/>
+      <c r="D96" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C96" s="27"/>
-      <c r="D96" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F96" s="16" t="s">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="27"/>
+      <c r="B97" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="27"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="29"/>
-      <c r="B97" s="32" t="s">
+      <c r="E98" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="27"/>
+      <c r="B99" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C97" s="23" t="s">
+      <c r="C99" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F97" s="21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="29"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="E99" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="27"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="27"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" s="18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="27"/>
+      <c r="B102" s="33" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="29"/>
-      <c r="B99" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C99" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" s="18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="29"/>
-      <c r="B100" s="30"/>
-      <c r="C100" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F100" s="16" t="s">
+      <c r="C102" s="33"/>
+      <c r="D102" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="29"/>
-      <c r="B101" s="30"/>
-      <c r="C101" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F101" s="18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="29"/>
-      <c r="B102" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="C102" s="32"/>
-      <c r="D102" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F102" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C107" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D107" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>53</v>
       </c>
@@ -2553,37 +2587,24 @@
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="B114" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C114" s="20"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="20"/>
-      <c r="B115" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C115" s="20"/>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C114" s="19"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="19"/>
+      <c r="B115" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C115" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="A94:A102"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A29:A48"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B52:B54"/>
+  <mergeCells count="31">
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="A9:A26"/>
@@ -2600,6 +2621,21 @@
     <mergeCell ref="B39:B43"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="A94:A102"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A29:A48"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/URL Mapping.xlsx
+++ b/src/main/resources/URL Mapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA Projects\SpringBoot Projects\music-box\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的资源\java实践\javaee\music-box\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD84A6A-5D68-430D-B8FA-31A7E0668D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E60610-13D3-4628-AF8D-B5CF54A1366F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -891,11 +891,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>music_menu, album ? 推荐传albumDto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>download从技术角度不可能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>albumDto</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1018,7 +1018,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1079,6 +1079,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1092,7 +1098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1129,20 +1135,34 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1150,26 +1170,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1457,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1499,13 +1509,13 @@
       <c r="B2" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="26" t="s">
         <v>151</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="24" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1563,11 +1573,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1579,13 +1589,13 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1594,11 +1604,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1607,11 +1617,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1620,11 +1630,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="31"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -1641,8 +1651,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="15" t="s">
         <v>17</v>
       </c>
@@ -1657,8 +1667,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="15" t="s">
         <v>23</v>
       </c>
@@ -1673,8 +1683,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -1689,9 +1699,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="35" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D17" t="s">
@@ -1705,11 +1715,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+      <c r="A18" s="31"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="36" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -1726,8 +1736,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="15" t="s">
         <v>62</v>
       </c>
@@ -1742,13 +1752,13 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
+      <c r="A21" s="31"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
+      <c r="A22" s="31"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="7" t="s">
         <v>134</v>
       </c>
@@ -1766,11 +1776,11 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="24" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1782,11 +1792,11 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="24" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="24"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1798,7 +1808,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="5" t="s">
         <v>132</v>
       </c>
@@ -1813,13 +1823,13 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="32"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="1" t="s">
         <v>72</v>
       </c>
@@ -1828,11 +1838,11 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="32" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="32"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="1" t="s">
         <v>73</v>
       </c>
@@ -1841,17 +1851,17 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
+      <c r="A31" s="31"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
+      <c r="A32" s="31"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="24" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1862,9 +1872,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="33"/>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="24" t="s">
         <v>98</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1878,16 +1888,16 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="31"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="24"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="24" t="s">
         <v>97</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -1899,9 +1909,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="33"/>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="24" t="s">
         <v>98</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1915,11 +1925,11 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
+      <c r="A38" s="31"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="26" t="s">
+      <c r="A39" s="31"/>
+      <c r="B39" s="35" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="23" t="s">
@@ -1934,8 +1944,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="26"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="23" t="s">
         <v>108</v>
       </c>
@@ -1950,8 +1960,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="26"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="23" t="s">
         <v>113</v>
       </c>
@@ -1966,8 +1976,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="26"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="23" t="s">
         <v>113</v>
       </c>
@@ -1982,8 +1992,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="26"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="13"/>
       <c r="D43" s="14" t="s">
         <v>84</v>
@@ -1991,14 +2001,14 @@
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
+      <c r="A44" s="31"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28" t="s">
+      <c r="A45" s="31"/>
+      <c r="B45" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="28"/>
+      <c r="C45" s="30"/>
       <c r="D45" s="14" t="s">
         <v>85</v>
       </c>
@@ -2007,14 +2017,14 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
+      <c r="A46" s="31"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28" t="s">
+      <c r="A47" s="31"/>
+      <c r="B47" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="28"/>
+      <c r="C47" s="30"/>
       <c r="D47" s="2" t="s">
         <v>78</v>
       </c>
@@ -2026,13 +2036,13 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
+      <c r="A48" s="31"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="31" t="s">
         <v>9</v>
       </c>
       <c r="C52" t="s">
@@ -2046,8 +2056,8 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="13" t="s">
         <v>96</v>
       </c>
@@ -2059,8 +2069,8 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="13" t="s">
         <v>96</v>
       </c>
@@ -2078,11 +2088,11 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
+      <c r="A55" s="31"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27" t="s">
+      <c r="A56" s="31"/>
+      <c r="B56" s="31" t="s">
         <v>87</v>
       </c>
       <c r="C56" s="13" t="s">
@@ -2097,8 +2107,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
       <c r="C57" s="13" t="s">
         <v>17</v>
       </c>
@@ -2113,8 +2123,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="31"/>
       <c r="C58" s="13" t="s">
         <v>17</v>
       </c>
@@ -2129,8 +2139,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="13" t="s">
         <v>89</v>
       </c>
@@ -2145,20 +2155,20 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
+      <c r="A60" s="31"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
+      <c r="A61" s="31"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
+      <c r="A62" s="31"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
+      <c r="A63" s="31"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27" t="s">
+      <c r="A64" s="31"/>
+      <c r="B64" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C64" s="13" t="s">
@@ -2175,8 +2185,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="13" t="s">
         <v>17</v>
       </c>
@@ -2191,8 +2201,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="13" t="s">
         <v>95</v>
       </c>
@@ -2207,8 +2217,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
       <c r="D67" s="14" t="s">
         <v>86</v>
       </c>
@@ -2217,8 +2227,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="13" t="s">
         <v>100</v>
       </c>
@@ -2233,16 +2243,16 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="27"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="7"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="27"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="7"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27" t="s">
+      <c r="A71" s="31"/>
+      <c r="B71" s="31" t="s">
         <v>57</v>
       </c>
       <c r="C71" s="13" t="s">
@@ -2259,8 +2269,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="13" t="s">
         <v>95</v>
       </c>
@@ -2275,8 +2285,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
+      <c r="A73" s="31"/>
+      <c r="B73" s="31"/>
       <c r="C73" s="13" t="s">
         <v>95</v>
       </c>
@@ -2291,14 +2301,14 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="27"/>
+      <c r="A74" s="31"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="27"/>
+      <c r="A75" s="31"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27" t="s">
+      <c r="A76" s="31"/>
+      <c r="B76" s="31" t="s">
         <v>48</v>
       </c>
       <c r="C76" t="s">
@@ -2315,8 +2325,8 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
+      <c r="A77" s="31"/>
+      <c r="B77" s="31"/>
       <c r="C77" t="s">
         <v>116</v>
       </c>
@@ -2331,42 +2341,42 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="27"/>
+      <c r="A78" s="31"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
-      <c r="B79" s="37"/>
+      <c r="A79" s="31"/>
+      <c r="B79" s="32"/>
       <c r="C79" s="12"/>
-      <c r="D79" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="E79" s="39"/>
+      <c r="D79" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E79" s="28"/>
       <c r="F79" s="12"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="27"/>
-      <c r="B80" s="37"/>
+      <c r="A80" s="31"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="12"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="39"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="28"/>
       <c r="F80" s="16"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="27"/>
-      <c r="B81" s="37"/>
+      <c r="A81" s="31"/>
+      <c r="B81" s="32"/>
       <c r="C81" s="12"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="39"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="28"/>
       <c r="F81" s="12"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="27"/>
+      <c r="A82" s="31"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="27"/>
+      <c r="A83" s="31"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="27"/>
+      <c r="A84" s="31"/>
       <c r="B84" s="5" t="s">
         <v>49</v>
       </c>
@@ -2378,15 +2388,15 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="27"/>
+      <c r="A85" s="31"/>
       <c r="B85" s="5"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="27"/>
+      <c r="A86" s="31"/>
       <c r="B86" s="5"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="27"/>
+      <c r="A87" s="31"/>
       <c r="B87" s="5" t="s">
         <v>50</v>
       </c>
@@ -2398,13 +2408,13 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="27"/>
+      <c r="A88" s="31"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="27"/>
+      <c r="A89" s="31"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="27"/>
+      <c r="A90" s="31"/>
       <c r="B90" s="7" t="s">
         <v>46</v>
       </c>
@@ -2416,13 +2426,13 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="27" t="s">
+      <c r="A94" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="29" t="s">
+      <c r="B94" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C94" s="29"/>
+      <c r="C94" s="37"/>
       <c r="D94" s="1" t="s">
         <v>128</v>
       </c>
@@ -2434,11 +2444,11 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="27"/>
-      <c r="B95" s="30" t="s">
+      <c r="A95" s="31"/>
+      <c r="B95" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="30"/>
+      <c r="C95" s="38"/>
       <c r="D95" s="3" t="s">
         <v>129</v>
       </c>
@@ -2450,11 +2460,11 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="27"/>
-      <c r="B96" s="36" t="s">
+      <c r="A96" s="31"/>
+      <c r="B96" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="C96" s="36"/>
+      <c r="C96" s="40"/>
       <c r="D96" s="4" t="s">
         <v>127</v>
       </c>
@@ -2466,8 +2476,8 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="27"/>
-      <c r="B97" s="25" t="s">
+      <c r="A97" s="31"/>
+      <c r="B97" s="36" t="s">
         <v>137</v>
       </c>
       <c r="C97" s="21" t="s">
@@ -2484,8 +2494,8 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="27"/>
-      <c r="B98" s="25"/>
+      <c r="A98" s="31"/>
+      <c r="B98" s="36"/>
       <c r="C98" s="20" t="s">
         <v>87</v>
       </c>
@@ -2500,11 +2510,11 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="27"/>
-      <c r="B99" s="26" t="s">
+      <c r="A99" s="31"/>
+      <c r="B99" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="C99" s="22" t="s">
+      <c r="C99" s="41" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -2514,13 +2524,13 @@
         <v>15</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="27"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="22" t="s">
+      <c r="A100" s="31"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="41" t="s">
         <v>143</v>
       </c>
       <c r="D100" s="4" t="s">
@@ -2534,9 +2544,9 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="27"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="22" t="s">
+      <c r="A101" s="31"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="41" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -2546,11 +2556,11 @@
         <v>15</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="27"/>
+      <c r="A102" s="31"/>
       <c r="B102" s="33" t="s">
         <v>139</v>
       </c>
@@ -2605,6 +2615,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="A94:A102"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A29:A48"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B95:C95"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="A9:A26"/>
@@ -2621,21 +2646,6 @@
     <mergeCell ref="B39:B43"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="A94:A102"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A29:A48"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/URL Mapping.xlsx
+++ b/src/main/resources/URL Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的资源\java实践\javaee\music-box\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E60610-13D3-4628-AF8D-B5CF54A1366F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B75C22-6837-45E4-9729-8CBF0D3701A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1098,7 +1098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1143,41 +1143,38 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1467,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99:B101"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1573,11 +1570,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1589,13 +1586,13 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1604,11 +1601,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="39" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1617,11 +1614,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="39" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="39"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1630,11 +1627,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="35"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -1651,8 +1648,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="15" t="s">
         <v>17</v>
       </c>
@@ -1667,8 +1664,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="15" t="s">
         <v>23</v>
       </c>
@@ -1683,8 +1680,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -1699,8 +1696,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="26" t="s">
         <v>61</v>
       </c>
@@ -1715,11 +1712,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
+      <c r="A18" s="35"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="36" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="32" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -1736,8 +1733,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="36"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="15" t="s">
         <v>62</v>
       </c>
@@ -1752,13 +1749,13 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
+      <c r="A21" s="35"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
+      <c r="A22" s="35"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="7" t="s">
         <v>134</v>
       </c>
@@ -1776,11 +1773,11 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="39" t="s">
+      <c r="A24" s="35"/>
+      <c r="B24" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="39"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1792,11 +1789,11 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="39" t="s">
+      <c r="A25" s="35"/>
+      <c r="B25" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="39"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1808,7 +1805,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="5" t="s">
         <v>132</v>
       </c>
@@ -1823,13 +1820,13 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="34"/>
+      <c r="C29" s="40"/>
       <c r="D29" s="1" t="s">
         <v>72</v>
       </c>
@@ -1838,11 +1835,11 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="34" t="s">
+      <c r="A30" s="35"/>
+      <c r="B30" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="34"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="1" t="s">
         <v>73</v>
       </c>
@@ -1851,14 +1848,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
+      <c r="A31" s="35"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
+      <c r="A32" s="35"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="33" t="s">
+      <c r="A33" s="35"/>
+      <c r="B33" s="34" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="24" t="s">
@@ -1872,8 +1869,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="33"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="24" t="s">
         <v>98</v>
       </c>
@@ -1888,13 +1885,13 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="25"/>
       <c r="C35" s="24"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="33" t="s">
+      <c r="A36" s="35"/>
+      <c r="B36" s="34" t="s">
         <v>45</v>
       </c>
       <c r="C36" s="24" t="s">
@@ -1909,8 +1906,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="33"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="24" t="s">
         <v>98</v>
       </c>
@@ -1925,11 +1922,11 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
+      <c r="A38" s="35"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="35" t="s">
+      <c r="A39" s="35"/>
+      <c r="B39" s="41" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="23" t="s">
@@ -1944,8 +1941,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="35"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="23" t="s">
         <v>108</v>
       </c>
@@ -1960,8 +1957,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="35"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="23" t="s">
         <v>113</v>
       </c>
@@ -1976,8 +1973,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="35"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="23" t="s">
         <v>113</v>
       </c>
@@ -1992,8 +1989,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="35"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="13"/>
       <c r="D43" s="14" t="s">
         <v>84</v>
@@ -2001,14 +1998,14 @@
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
+      <c r="A44" s="35"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="30" t="s">
+      <c r="A45" s="35"/>
+      <c r="B45" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="30"/>
+      <c r="C45" s="36"/>
       <c r="D45" s="14" t="s">
         <v>85</v>
       </c>
@@ -2017,14 +2014,14 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
+      <c r="A46" s="35"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="30" t="s">
+      <c r="A47" s="35"/>
+      <c r="B47" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="30"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="2" t="s">
         <v>78</v>
       </c>
@@ -2036,13 +2033,13 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
+      <c r="A48" s="35"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C52" t="s">
@@ -2056,8 +2053,8 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
       <c r="C53" s="13" t="s">
         <v>96</v>
       </c>
@@ -2069,8 +2066,8 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
       <c r="C54" s="13" t="s">
         <v>96</v>
       </c>
@@ -2088,11 +2085,11 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
+      <c r="A55" s="35"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31" t="s">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35" t="s">
         <v>87</v>
       </c>
       <c r="C56" s="13" t="s">
@@ -2107,8 +2104,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
       <c r="C57" s="13" t="s">
         <v>17</v>
       </c>
@@ -2123,8 +2120,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
       <c r="C58" s="13" t="s">
         <v>17</v>
       </c>
@@ -2139,8 +2136,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
       <c r="C59" s="13" t="s">
         <v>89</v>
       </c>
@@ -2155,20 +2152,20 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
+      <c r="A60" s="35"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
+      <c r="A61" s="35"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
+      <c r="A62" s="35"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
+      <c r="A63" s="35"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31" t="s">
+      <c r="A64" s="35"/>
+      <c r="B64" s="35" t="s">
         <v>56</v>
       </c>
       <c r="C64" s="13" t="s">
@@ -2185,8 +2182,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
       <c r="C65" s="13" t="s">
         <v>17</v>
       </c>
@@ -2201,8 +2198,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
-      <c r="B66" s="31"/>
+      <c r="A66" s="35"/>
+      <c r="B66" s="35"/>
       <c r="C66" s="13" t="s">
         <v>95</v>
       </c>
@@ -2217,8 +2214,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
+      <c r="A67" s="35"/>
+      <c r="B67" s="35"/>
       <c r="D67" s="14" t="s">
         <v>86</v>
       </c>
@@ -2227,8 +2224,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="35"/>
       <c r="C68" s="13" t="s">
         <v>100</v>
       </c>
@@ -2243,16 +2240,16 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="31"/>
+      <c r="A69" s="35"/>
       <c r="B69" s="7"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="31"/>
+      <c r="A70" s="35"/>
       <c r="B70" s="7"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31" t="s">
+      <c r="A71" s="35"/>
+      <c r="B71" s="35" t="s">
         <v>57</v>
       </c>
       <c r="C71" s="13" t="s">
@@ -2269,8 +2266,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="35"/>
       <c r="C72" s="13" t="s">
         <v>95</v>
       </c>
@@ -2285,8 +2282,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
-      <c r="B73" s="31"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="35"/>
       <c r="C73" s="13" t="s">
         <v>95</v>
       </c>
@@ -2301,14 +2298,14 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="31"/>
+      <c r="A74" s="35"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
+      <c r="A75" s="35"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31" t="s">
+      <c r="A76" s="35"/>
+      <c r="B76" s="35" t="s">
         <v>48</v>
       </c>
       <c r="C76" t="s">
@@ -2325,8 +2322,8 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="31"/>
-      <c r="B77" s="31"/>
+      <c r="A77" s="35"/>
+      <c r="B77" s="35"/>
       <c r="C77" t="s">
         <v>116</v>
       </c>
@@ -2341,11 +2338,11 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
+      <c r="A78" s="35"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
-      <c r="B79" s="32"/>
+      <c r="A79" s="35"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="12"/>
       <c r="D79" s="27" t="s">
         <v>169</v>
@@ -2354,29 +2351,29 @@
       <c r="F79" s="12"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="31"/>
-      <c r="B80" s="32"/>
+      <c r="A80" s="35"/>
+      <c r="B80" s="39"/>
       <c r="C80" s="12"/>
       <c r="D80" s="29"/>
       <c r="E80" s="28"/>
       <c r="F80" s="16"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="31"/>
-      <c r="B81" s="32"/>
+      <c r="A81" s="35"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="12"/>
       <c r="D81" s="29"/>
       <c r="E81" s="28"/>
       <c r="F81" s="12"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="31"/>
+      <c r="A82" s="35"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="31"/>
+      <c r="A83" s="35"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="31"/>
+      <c r="A84" s="35"/>
       <c r="B84" s="5" t="s">
         <v>49</v>
       </c>
@@ -2388,15 +2385,15 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="31"/>
+      <c r="A85" s="35"/>
       <c r="B85" s="5"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="31"/>
+      <c r="A86" s="35"/>
       <c r="B86" s="5"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="31"/>
+      <c r="A87" s="35"/>
       <c r="B87" s="5" t="s">
         <v>50</v>
       </c>
@@ -2408,13 +2405,13 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="31"/>
+      <c r="A88" s="35"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="31"/>
+      <c r="A89" s="35"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="31"/>
+      <c r="A90" s="35"/>
       <c r="B90" s="7" t="s">
         <v>46</v>
       </c>
@@ -2426,7 +2423,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="31" t="s">
+      <c r="A94" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B94" s="37" t="s">
@@ -2444,7 +2441,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="31"/>
+      <c r="A95" s="35"/>
       <c r="B95" s="38" t="s">
         <v>17</v>
       </c>
@@ -2460,11 +2457,11 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="31"/>
-      <c r="B96" s="40" t="s">
+      <c r="A96" s="35"/>
+      <c r="B96" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="C96" s="40"/>
+      <c r="C96" s="37"/>
       <c r="D96" s="4" t="s">
         <v>127</v>
       </c>
@@ -2476,8 +2473,8 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="31"/>
-      <c r="B97" s="36" t="s">
+      <c r="A97" s="35"/>
+      <c r="B97" s="32" t="s">
         <v>137</v>
       </c>
       <c r="C97" s="21" t="s">
@@ -2494,8 +2491,8 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="31"/>
-      <c r="B98" s="36"/>
+      <c r="A98" s="35"/>
+      <c r="B98" s="32"/>
       <c r="C98" s="20" t="s">
         <v>87</v>
       </c>
@@ -2510,11 +2507,11 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="31"/>
-      <c r="B99" s="42" t="s">
+      <c r="A99" s="35"/>
+      <c r="B99" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C99" s="41" t="s">
+      <c r="C99" s="30" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -2528,9 +2525,9 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="31"/>
-      <c r="B100" s="42"/>
-      <c r="C100" s="41" t="s">
+      <c r="A100" s="35"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="30" t="s">
         <v>143</v>
       </c>
       <c r="D100" s="4" t="s">
@@ -2544,9 +2541,9 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="31"/>
-      <c r="B101" s="42"/>
-      <c r="C101" s="41" t="s">
+      <c r="A101" s="35"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="30" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -2560,11 +2557,11 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="31"/>
-      <c r="B102" s="33" t="s">
+      <c r="A102" s="35"/>
+      <c r="B102" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="C102" s="33"/>
+      <c r="C102" s="34"/>
       <c r="D102" s="3" t="s">
         <v>125</v>
       </c>
@@ -2615,21 +2612,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="A94:A102"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A29:A48"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B95:C95"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="A9:A26"/>
@@ -2646,6 +2628,21 @@
     <mergeCell ref="B39:B43"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="A94:A102"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A29:A48"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
